--- a/public/report_template/sales_report.xlsx
+++ b/public/report_template/sales_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\app-tnda-manager\public\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\code\tnda-manager\public\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD03AE0-B8DA-456E-B144-B4EF4C0DEE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEE757-5BB5-4FB6-B157-E4EA7CF5E261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AGENT" sheetId="17" r:id="rId1"/>
@@ -18,28 +18,20 @@
     <sheet name="WHOLE TEAM" sheetId="16" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LEADER!$A$5:$CM$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LEADER!$A$5:$DV$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'WHOLE TEAM'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="55">
   <si>
     <t>BÁO CÁO HOẠT ĐỘNG KINH DOANH DÀNH CHO ĐẠI LÝ</t>
   </si>
@@ -162,9 +154,6 @@
   </si>
   <si>
     <t>Họ &amp; Tên Trưởng Vùng</t>
-  </si>
-  <si>
-    <t>Active(*)</t>
   </si>
   <si>
     <r>
@@ -231,10 +220,31 @@
     <t>Thông tin Doanh Số Tháng 12</t>
   </si>
   <si>
-    <t>Headcount AG(*)</t>
-  </si>
-  <si>
-    <t>Headcount DM+ (*)</t>
+    <t>FYP Phòng TT</t>
+  </si>
+  <si>
+    <t>FYP Team</t>
+  </si>
+  <si>
+    <t>FYC Phòng TT</t>
+  </si>
+  <si>
+    <t>FYC Team</t>
+  </si>
+  <si>
+    <t>APE Phòng TT</t>
+  </si>
+  <si>
+    <t>APE Team</t>
+  </si>
+  <si>
+    <t>Thông tin Doanh Số YTD (*)</t>
+  </si>
+  <si>
+    <t>Headcount AG (*)</t>
+  </si>
+  <si>
+    <t>Headcount DM+(*)</t>
   </si>
 </sst>
 </file>
@@ -873,7 +883,7 @@
     </row>
     <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10">
         <v>44165</v>
@@ -982,7 +992,7 @@
       <c r="BH3" s="18"/>
       <c r="BI3" s="19"/>
       <c r="BJ3" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BK3" s="18"/>
       <c r="BL3" s="18"/>
@@ -1205,6 +1215,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BE3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BN3:BQ3"/>
+    <mergeCell ref="BJ3:BM3"/>
     <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:G3"/>
@@ -1217,12 +1233,6 @@
     <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="AH3:AK3"/>
     <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BE3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BN3:BQ3"/>
-    <mergeCell ref="BJ3:BM3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1230,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CN6"/>
+  <dimension ref="A1:DZ6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BY1" workbookViewId="0">
-      <selection activeCell="CL8" sqref="CL8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="DM1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,89 +1259,100 @@
     <col min="13" max="13" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" customWidth="1"/>
-    <col min="21" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" customWidth="1"/>
-    <col min="27" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" customWidth="1"/>
+    <col min="24" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.140625" customWidth="1"/>
     <col min="33" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" customWidth="1"/>
-    <col min="39" max="41" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.140625" customWidth="1"/>
-    <col min="45" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.140625" customWidth="1"/>
-    <col min="51" max="53" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.140625" customWidth="1"/>
-    <col min="57" max="59" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.140625" customWidth="1"/>
-    <col min="63" max="65" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="18.140625" customWidth="1"/>
-    <col min="69" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.140625" customWidth="1"/>
-    <col min="75" max="77" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="18.140625" customWidth="1"/>
-    <col min="81" max="83" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="18.140625" customWidth="1"/>
-    <col min="87" max="89" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17.140625" customWidth="1"/>
-    <col min="92" max="92" width="18.5703125" customWidth="1"/>
-    <col min="93" max="93" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="41" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.140625" customWidth="1"/>
+    <col min="50" max="51" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.140625" customWidth="1"/>
+    <col min="59" max="60" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.140625" customWidth="1"/>
+    <col min="68" max="69" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="72" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.140625" customWidth="1"/>
+    <col min="77" max="78" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="81" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.140625" customWidth="1"/>
+    <col min="86" max="87" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18.140625" customWidth="1"/>
+    <col min="95" max="96" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="97" max="99" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.140625" customWidth="1"/>
+    <col min="104" max="105" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="108" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="18.140625" customWidth="1"/>
+    <col min="113" max="114" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="117" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="120" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="18.140625" customWidth="1"/>
+    <col min="122" max="124" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="17.140625" customWidth="1"/>
+    <col min="127" max="127" width="18.5703125" customWidth="1"/>
+    <col min="128" max="128" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:130" ht="21.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="CK1" s="28" t="s">
+      <c r="DT1" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="DU1" s="28"/>
+      <c r="DV1" s="28"/>
+    </row>
+    <row r="2" spans="1:130" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>44165</v>
       </c>
-      <c r="CK2" s="15"/>
+      <c r="DT2" s="15"/>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
@@ -1360,104 +1381,142 @@
       <c r="R4" s="26"/>
       <c r="S4" s="26"/>
       <c r="T4" s="26"/>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="17" t="s">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="17" t="s">
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="17" t="s">
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="17" t="s">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="17" t="s">
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="17" t="s">
+      <c r="BQ4" s="26"/>
+      <c r="BR4" s="26"/>
+      <c r="BS4" s="26"/>
+      <c r="BT4" s="26"/>
+      <c r="BU4" s="26"/>
+      <c r="BV4" s="26"/>
+      <c r="BW4" s="26"/>
+      <c r="BX4" s="26"/>
+      <c r="BY4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18"/>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="17" t="s">
+      <c r="BZ4" s="26"/>
+      <c r="CA4" s="26"/>
+      <c r="CB4" s="26"/>
+      <c r="CC4" s="26"/>
+      <c r="CD4" s="26"/>
+      <c r="CE4" s="26"/>
+      <c r="CF4" s="26"/>
+      <c r="CG4" s="26"/>
+      <c r="CH4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18"/>
-      <c r="CF4" s="18"/>
-      <c r="CG4" s="18"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="26" t="s">
-        <v>29</v>
-      </c>
+      <c r="CI4" s="26"/>
       <c r="CJ4" s="26"/>
       <c r="CK4" s="26"/>
       <c r="CL4" s="26"/>
       <c r="CM4" s="26"/>
       <c r="CN4" s="26"/>
+      <c r="CO4" s="26"/>
+      <c r="CP4" s="26"/>
+      <c r="CQ4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="CR4" s="26"/>
+      <c r="CS4" s="26"/>
+      <c r="CT4" s="26"/>
+      <c r="CU4" s="26"/>
+      <c r="CV4" s="26"/>
+      <c r="CW4" s="26"/>
+      <c r="CX4" s="26"/>
+      <c r="CY4" s="26"/>
+      <c r="CZ4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="DA4" s="26"/>
+      <c r="DB4" s="26"/>
+      <c r="DC4" s="26"/>
+      <c r="DD4" s="26"/>
+      <c r="DE4" s="26"/>
+      <c r="DF4" s="26"/>
+      <c r="DG4" s="26"/>
+      <c r="DH4" s="26"/>
+      <c r="DI4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="DJ4" s="26"/>
+      <c r="DK4" s="26"/>
+      <c r="DL4" s="26"/>
+      <c r="DM4" s="26"/>
+      <c r="DN4" s="26"/>
+      <c r="DO4" s="26"/>
+      <c r="DP4" s="26"/>
+      <c r="DQ4" s="26"/>
+      <c r="DR4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="DS4" s="26"/>
+      <c r="DT4" s="26"/>
+      <c r="DU4" s="26"/>
+      <c r="DV4" s="26"/>
+      <c r="DW4" s="26"/>
+      <c r="DX4" s="26"/>
+      <c r="DY4" s="26"/>
+      <c r="DZ4" s="26"/>
     </row>
-    <row r="5" spans="1:92" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1501,241 +1560,355 @@
         <v>10</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="V5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>44</v>
+      <c r="X5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AE5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="AG5" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="AI5" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AJ5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AL5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AO5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AQ5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="AV5" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AW5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AX5" s="7" t="s">
-        <v>45</v>
+      <c r="AX5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="AY5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="BA5" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="BB5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BC5" s="7" t="s">
+      <c r="BE5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="BD5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="BG5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH5" s="7" t="s">
+      <c r="BG5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BI5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="BJ5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="BM5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="BN5" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="BO5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="BP5" s="7" t="s">
-        <v>45</v>
+      <c r="BP5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="BQ5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR5" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="BS5" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="BT5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="BU5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="BU5" s="7" t="s">
+      <c r="BW5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BX5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="BV5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="BW5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="BX5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="BY5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="BZ5" s="7" t="s">
+      <c r="BY5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="BZ5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="CA5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="CC5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CD5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="CE5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="CA5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="CB5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="CC5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="CD5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="CE5" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="CF5" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="CG5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="CH5" s="7" t="s">
-        <v>45</v>
+      <c r="CH5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="CI5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="CJ5" s="6" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="CJ5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="CK5" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="CL5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="CM5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CO5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="CP5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="CN5" s="7" t="s">
+      <c r="CS5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="CT5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="CU5" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="CV5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="CY5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="CZ5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="DA5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="DB5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="DC5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="DD5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DE5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="DF5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DG5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="DH5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DI5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="DJ5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="DK5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="DL5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="DM5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DN5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="DO5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DP5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="DQ5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="DR5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="DS5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="DT5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="DU5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="DV5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="DW5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="DX5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="DY5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="DZ5" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:130" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1780,27 +1953,51 @@
       </c>
       <c r="O6">
         <v>14</v>
+      </c>
+      <c r="P6">
+        <v>15</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
+      </c>
+      <c r="R6">
+        <v>17</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6">
+        <v>19</v>
+      </c>
+      <c r="U6">
+        <v>20</v>
+      </c>
+      <c r="V6">
+        <v>21</v>
+      </c>
+      <c r="W6">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="CI4:CN4"/>
+    <mergeCell ref="CZ4:DH4"/>
+    <mergeCell ref="DI4:DQ4"/>
+    <mergeCell ref="DR4:DZ4"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="AG4:AN4"/>
+    <mergeCell ref="AO4:AW4"/>
+    <mergeCell ref="AX4:BF4"/>
+    <mergeCell ref="BG4:BO4"/>
+    <mergeCell ref="BP4:BX4"/>
+    <mergeCell ref="BY4:CG4"/>
+    <mergeCell ref="CH4:CP4"/>
+    <mergeCell ref="CQ4:CY4"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="CK1:CM1"/>
+    <mergeCell ref="DT1:DV1"/>
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="BW4:CB4"/>
-    <mergeCell ref="BQ4:BV4"/>
-    <mergeCell ref="BK4:BP4"/>
-    <mergeCell ref="BE4:BJ4"/>
-    <mergeCell ref="AY4:BD4"/>
-    <mergeCell ref="CC4:CH4"/>
-    <mergeCell ref="AS4:AX4"/>
-    <mergeCell ref="AM4:AR4"/>
-    <mergeCell ref="AG4:AL4"/>
-    <mergeCell ref="AA4:AF4"/>
+    <mergeCell ref="O4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
